--- a/dati/template_calendario.xlsx
+++ b/dati/template_calendario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Dipartimento</t>
   </si>
   <si>
-    <t>Classe di concorso</t>
-  </si>
-  <si>
     <t>Insegnamento comune</t>
   </si>
   <si>
@@ -73,10 +70,10 @@
     <t>Anno</t>
   </si>
   <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
+    <t>28-04-2025</t>
+  </si>
+  <si>
+    <t>29-04-2025</t>
   </si>
   <si>
     <t>14:30-16:45</t>
@@ -91,12 +88,12 @@
     <t>Scienze della Formazione</t>
   </si>
   <si>
+    <t>Trasversale A</t>
+  </si>
+  <si>
     <t>A018</t>
   </si>
   <si>
-    <t>Trasversale A</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t>• I campi Giorno, Mese e Anno possono essere vuoti, verranno generati dalla Data</t>
   </si>
   <si>
-    <t>• La Data deve essere nel formato YYYY-MM-DD (es. 2025-04-28)</t>
+    <t>• La Data deve essere nel formato italiano DD-MM-YYYY (es. 28-04-2025)</t>
   </si>
   <si>
     <t>• L'Orario deve essere nel formato HH:MM-HH:MM (es. 14:30-16:45)</t>
@@ -518,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,16 +523,15 @@
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
-    <col min="12" max="19" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,108 +586,102 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="N2">
         <v>0.5</v>
       </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>34</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
         <v>38</v>
@@ -699,38 +689,35 @@
       <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
